--- a/AAII_Financials/Quarterly/LCAHU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCAHU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>LCAHU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1070,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,37 +1187,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,75 +1715,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,23 +1965,25 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1820,20 +1993,26 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1896,20 +2081,26 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1960,11 +2157,11 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -1972,37 +2169,43 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>4</v>
@@ -2010,35 +2213,41 @@
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>319900</v>
+      </c>
+      <c r="F47" s="3">
         <v>319000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>317400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2048,20 +2257,26 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>250900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>250500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>250300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>250100</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2223,26 +2462,26 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>322400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>321500</v>
+      </c>
+      <c r="F54" s="3">
         <v>320700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>319300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>251800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>251500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>251500</v>
       </c>
       <c r="N54" s="3">
         <v>251500</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>251500</v>
+      </c>
+      <c r="P54" s="3">
+        <v>251500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2617,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -2384,20 +2645,26 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,26 +2701,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2472,46 +2745,58 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2559,11 +2850,11 @@
       <c r="E62" s="3">
         <v>11100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2574,11 +2865,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>8800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>8800</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>8800</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P62" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,37 +3009,43 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
-        <v>8900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>8900</v>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3">
         <v>8900</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3">
         <v>8900</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P66" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,25 +3247,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F72" s="3">
         <v>2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>800</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -2932,20 +3279,26 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>200</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,25 +3423,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>309500</v>
+      </c>
+      <c r="F76" s="3">
         <v>309000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>307800</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
@@ -3084,20 +3455,26 @@
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>242800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>242600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>242600</v>
       </c>
       <c r="N76" s="3">
         <v>242600</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>242600</v>
+      </c>
+      <c r="P76" s="3">
+        <v>242600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,13 +4080,19 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3641,32 +4100,38 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,19 +4318,25 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -3865,14 +4356,20 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCAHU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCAHU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>LCAHU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,25 +1098,26 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1098,26 +1125,29 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
+      <c r="M17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,13 +1158,13 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1142,26 +1172,29 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1221,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,75 +1350,81 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1386,20 +1432,23 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
+      <c r="M27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1785,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
+      <c r="M33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
+      <c r="M35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,26 +2053,27 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1999,20 +2086,23 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2087,8 +2180,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2096,11 +2189,14 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2163,8 +2262,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2175,40 +2274,43 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -2219,38 +2321,41 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>321200</v>
+      </c>
+      <c r="E47" s="3">
         <v>320900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>319900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>319000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>317400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2263,20 +2368,23 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>250900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>250500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>250300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>250100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2468,12 +2588,12 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2483,8 +2603,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,20 +2674,20 @@
         <v>322400</v>
       </c>
       <c r="E54" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F54" s="3">
         <v>321500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>320700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>319300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2571,11 +2697,11 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>251800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>251500</v>
       </c>
       <c r="O54" s="3">
         <v>251500</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>251500</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>251500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,29 +2749,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,20 +2782,23 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>200</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,20 +2853,20 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,29 +2888,32 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2783,20 +2923,23 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
-        <v>200</v>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2856,8 +3002,8 @@
       <c r="G62" s="3">
         <v>11100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>11100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2871,8 +3017,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>8800</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>8800</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,20 +3182,20 @@
         <v>12100</v>
       </c>
       <c r="E66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F66" s="3">
         <v>12000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3047,8 +3205,8 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
-        <v>8900</v>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N66" s="3">
         <v>8900</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>8900</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,19 +3436,19 @@
         <v>3300</v>
       </c>
       <c r="E72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F72" s="3">
         <v>2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>800</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -3285,20 +3459,23 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>200</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,28 +3612,31 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>310300</v>
+      </c>
+      <c r="E76" s="3">
         <v>310200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>309500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>309000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>307800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -3461,11 +3647,11 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>242800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>242600</v>
       </c>
       <c r="O76" s="3">
         <v>242600</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>242600</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>242600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
+      <c r="M81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4118,46 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,22 +4313,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -4112,26 +4342,29 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,22 +4567,25 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -4362,14 +4608,17 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCAHU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCAHU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>LCAHU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,28 +1125,29 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1128,26 +1155,29 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,19 +1185,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1175,26 +1205,29 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,46 +1255,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,81 +1393,87 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1435,20 +1481,23 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,93 +1855,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
+      <c r="N33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,29 +2140,30 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2089,20 +2176,23 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2192,11 +2285,14 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2265,8 +2364,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2277,43 +2376,46 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -2324,41 +2426,44 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E47" s="3">
         <v>321200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>320900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>319900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>319000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>317400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2371,20 +2476,23 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>250900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>250500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>250300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>250100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2591,12 +2711,12 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,8 +2726,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,32 +2788,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>322400</v>
+        <v>321400</v>
       </c>
       <c r="E54" s="3">
         <v>322400</v>
       </c>
       <c r="F54" s="3">
+        <v>322400</v>
+      </c>
+      <c r="G54" s="3">
         <v>321500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>320700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>319300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2700,11 +2826,11 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>251800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>251500</v>
       </c>
       <c r="P54" s="3">
         <v>251500</v>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>251500</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>251500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,32 +2880,33 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2785,20 +2916,23 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>200</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,32 +2978,35 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,32 +3028,35 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2926,20 +3066,23 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
-        <v>200</v>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3005,8 +3151,8 @@
       <c r="H62" s="3">
         <v>11100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>11100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3020,8 +3166,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>8800</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>8800</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,32 +3328,35 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12100</v>
+        <v>11400</v>
       </c>
       <c r="E66" s="3">
         <v>12100</v>
       </c>
       <c r="F66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G66" s="3">
         <v>12000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3208,8 +3366,8 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
-        <v>8900</v>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O66" s="3">
         <v>8900</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>8900</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,31 +3598,34 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E72" s="3">
         <v>3300</v>
       </c>
       <c r="F72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G72" s="3">
         <v>2500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>800</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -3462,20 +3636,23 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>200</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,31 +3798,34 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>310100</v>
+      </c>
+      <c r="E76" s="3">
         <v>310300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>310200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>309500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>309000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>307800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
@@ -3650,11 +3836,11 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>242800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>242600</v>
       </c>
       <c r="P76" s="3">
         <v>242600</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>242600</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>242600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
+      <c r="N81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,25 +4543,28 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -4345,26 +4575,29 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,25 +4813,28 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
@@ -4611,14 +4857,17 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>
